--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Qrfp-Qrfpr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Qrfp-Qrfpr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Qrfp</t>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +519,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -537,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.083857</v>
+        <v>0.2581393333333333</v>
       </c>
       <c r="H2">
-        <v>0.251571</v>
+        <v>0.7744180000000001</v>
       </c>
       <c r="I2">
-        <v>0.05911792283234753</v>
+        <v>0.174859595118225</v>
       </c>
       <c r="J2">
-        <v>0.05911792283234752</v>
+        <v>0.1748595951182251</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -567,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.01017652213966667</v>
+        <v>0.03132667088955556</v>
       </c>
       <c r="R2">
-        <v>0.091588699257</v>
+        <v>0.281940038006</v>
       </c>
       <c r="S2">
-        <v>0.05911792283234753</v>
+        <v>0.174859595118225</v>
       </c>
       <c r="T2">
-        <v>0.05911792283234752</v>
+        <v>0.1748595951182251</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +581,10 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,10 +602,10 @@
         <v>2.319562</v>
       </c>
       <c r="I3">
-        <v>0.5450854324260177</v>
+        <v>0.5237451507733812</v>
       </c>
       <c r="J3">
-        <v>0.5450854324260177</v>
+        <v>0.5237451507733814</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.09383066429488891</v>
+        <v>0.0938306642948889</v>
       </c>
       <c r="R3">
-        <v>0.8444759786540001</v>
+        <v>0.844475978654</v>
       </c>
       <c r="S3">
-        <v>0.5450854324260177</v>
+        <v>0.5237451507733812</v>
       </c>
       <c r="T3">
-        <v>0.5450854324260177</v>
+        <v>0.5237451507733814</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +643,10 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -661,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.372284</v>
+        <v>0.4449396666666667</v>
       </c>
       <c r="H4">
-        <v>1.116852</v>
+        <v>1.334819</v>
       </c>
       <c r="I4">
-        <v>0.2624546165939357</v>
+        <v>0.3013952541083937</v>
       </c>
       <c r="J4">
-        <v>0.2624546165939357</v>
+        <v>0.3013952541083937</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -691,78 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.04517877300933334</v>
+        <v>0.05399594987477777</v>
       </c>
       <c r="R4">
-        <v>0.406608957084</v>
+        <v>0.485963548873</v>
       </c>
       <c r="S4">
-        <v>0.2624546165939357</v>
+        <v>0.3013952541083937</v>
       </c>
       <c r="T4">
-        <v>0.2624546165939357</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.1891416666666667</v>
-      </c>
-      <c r="H5">
-        <v>0.567425</v>
-      </c>
-      <c r="I5">
-        <v>0.133342028147699</v>
-      </c>
-      <c r="J5">
-        <v>0.133342028147699</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.1213556666666667</v>
-      </c>
-      <c r="N5">
-        <v>0.364067</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>0.02295341305277778</v>
-      </c>
-      <c r="R5">
-        <v>0.206580717475</v>
-      </c>
-      <c r="S5">
-        <v>0.133342028147699</v>
-      </c>
-      <c r="T5">
-        <v>0.133342028147699</v>
+        <v>0.3013952541083937</v>
       </c>
     </row>
   </sheetData>
